--- a/art/美术制作规范/场景内怪物缩放截图.xlsx
+++ b/art/美术制作规范/场景内怪物缩放截图.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\art\美术制作规范\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>大街站位4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +50,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小巷站位4 battlePosition3（剧情boss）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>小巷站位3 battlePosition2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小巷站位4 battlePosition3（剧情boss）</t>
+    <t>森林站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林站位1 battlePosition0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林站位2 battlePosition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森林站位3 battlePosition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山站位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位1 battlePosition0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位2 battlePosition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站位3 battlePosition2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1487,6 +1519,1260 @@
         <a:xfrm>
           <a:off x="12277725" y="12401550"/>
           <a:ext cx="2619048" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2933375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1885742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="16611600"/>
+          <a:ext cx="2600000" cy="1666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952427</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1866707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6572250" y="16716375"/>
+          <a:ext cx="2580952" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2619048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1800000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="16392525"/>
+          <a:ext cx="2619048" cy="1800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2590476</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1800055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="16830675"/>
+          <a:ext cx="2590476" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2704773</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1742910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15039975" y="16811625"/>
+          <a:ext cx="2619048" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2723825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1809585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17878425" y="16878300"/>
+          <a:ext cx="2600000" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9196</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1828632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17878425" y="16878300"/>
+          <a:ext cx="2628571" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2876225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2181051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="21545550"/>
+          <a:ext cx="2600000" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>876300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47293</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2323919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="21631275"/>
+          <a:ext cx="2657143" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>895350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123496</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2276302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12449175" y="21650325"/>
+          <a:ext cx="2628571" cy="1380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>809625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3028629</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2104863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152775" y="21564600"/>
+          <a:ext cx="2571429" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3209601</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1723867</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3314700" y="19202400"/>
+          <a:ext cx="2590476" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2952425</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1809570</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6553200" y="19116675"/>
+          <a:ext cx="2600000" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2714296</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1742914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="19202400"/>
+          <a:ext cx="2628571" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2685726</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1714333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12325350" y="19126200"/>
+          <a:ext cx="2590476" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2761924</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1695279</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15106650" y="19069050"/>
+          <a:ext cx="2609524" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>18725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1628614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="图片 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17916525" y="19088100"/>
+          <a:ext cx="2600000" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3114346</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1590507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="25098375"/>
+          <a:ext cx="2628571" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2961946</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1695269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="图片 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6534150" y="25098375"/>
+          <a:ext cx="2628571" cy="1447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2704773</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1647660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="25174575"/>
+          <a:ext cx="2619048" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2685720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1733379</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12277725" y="25212675"/>
+          <a:ext cx="2638095" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2790495</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1695287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="图片 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15106650" y="25241250"/>
+          <a:ext cx="2638095" cy="1304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2666674</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1590512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="图片 67"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17811750" y="25136475"/>
+          <a:ext cx="2609524" cy="1304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3066718</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1485752</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="图片 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3105150" y="27203400"/>
+          <a:ext cx="2657143" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2961948</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1457176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="图片 69"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6543675" y="27165300"/>
+          <a:ext cx="2619048" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2733343</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1628571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图片 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="26898600"/>
+          <a:ext cx="2657143" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2828925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1981200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2590474</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133117</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="图片 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211050" y="26831925"/>
+          <a:ext cx="2609524" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2666667</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1219048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954250" y="26898600"/>
+          <a:ext cx="2666667" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2628571</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1180952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="图片 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17754600" y="26898600"/>
+          <a:ext cx="2628571" cy="1180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3095300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1571473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190875" y="28917900"/>
+          <a:ext cx="2600000" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3076244</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1571476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6629400" y="28946475"/>
+          <a:ext cx="2647619" cy="1190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2685717</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1504796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9401175" y="28841700"/>
+          <a:ext cx="2666667" cy="1228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2657146</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1504798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12258675" y="28851225"/>
+          <a:ext cx="2628571" cy="1219048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1761,10 +3047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1778,46 +3064,975 @@
     <col min="7" max="7" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:1" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="99" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="188.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
       </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="185.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="202.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="131.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A98" s="1"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A99" s="1"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A100" s="1"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A101" s="1"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A102" s="1"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A103" s="1"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" s="1"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" s="1"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" s="1"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" s="1"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" s="1"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A110" s="1"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A113" s="1"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A114" s="1"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A115" s="1"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A116" s="1"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" s="1"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A118" s="1"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A119" s="1"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" s="1"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A123" s="1"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A124" s="1"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A125" s="1"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A126" s="1"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A127" s="1"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A128" s="1"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A129" s="1"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A130" s="1"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A131" s="1"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" s="1"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A137" s="1"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A138" s="1"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A140" s="1"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A141" s="1"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A142" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A282" s="1"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A289" s="1"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A290" s="1"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A291" s="1"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A292" s="1"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A293" s="1"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A294" s="1"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A295" s="1"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A296" s="1"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A297" s="1"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A298" s="1"/>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A299" s="1"/>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A300" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/art/美术制作规范/场景内怪物缩放截图.xlsx
+++ b/art/美术制作规范/场景内怪物缩放截图.xlsx
@@ -2632,133 +2632,133 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>352425</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3095300</xdr:colOff>
+      <xdr:colOff>2590476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="28565475"/>
+          <a:ext cx="2590476" cy="1847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1571473</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="图片 74"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3190875" y="28917900"/>
-          <a:ext cx="2600000" cy="1219048"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:colOff>2800025</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>3076244</xdr:colOff>
+      <xdr:rowOff>1476200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="28641675"/>
+          <a:ext cx="2600000" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1571476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="图片 75"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6629400" y="28946475"/>
-          <a:ext cx="2647619" cy="1190476"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>2600000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2685717</xdr:colOff>
+      <xdr:rowOff>1342857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="图片 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="28565475"/>
+          <a:ext cx="2600000" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1504796</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="图片 76"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9401175" y="28841700"/>
-          <a:ext cx="2666667" cy="1228571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>2695254</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2657146</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1504798</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="图片 77"/>
+      <xdr:rowOff>1647660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2771,8 +2771,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12258675" y="28851225"/>
-          <a:ext cx="2628571" cy="1219048"/>
+          <a:off x="12353925" y="28889325"/>
+          <a:ext cx="2571429" cy="1323810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3049,8 +3049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/art/美术制作规范/场景内怪物缩放截图.xlsx
+++ b/art/美术制作规范/场景内怪物缩放截图.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\art\美术制作规范\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chunSVN\art\美术制作规范\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>大街站位4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,47 @@
   <si>
     <t>站位3 battlePosition2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币试练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验试练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition0</t>
+  </si>
+  <si>
+    <t>battlePosition1</t>
+  </si>
+  <si>
+    <t>battlePosition2</t>
   </si>
 </sst>
 </file>
@@ -2773,6 +2814,1830 @@
         <a:xfrm>
           <a:off x="12353925" y="28889325"/>
           <a:ext cx="2571429" cy="1323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3457143</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1904762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="32346900"/>
+          <a:ext cx="3457143" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2638095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1590476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="32346900"/>
+          <a:ext cx="2638095" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2580952</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1647619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="32346900"/>
+          <a:ext cx="2580952" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2600000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1419048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="32346900"/>
+          <a:ext cx="2600000" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2619048</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1400000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="图片 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954250" y="32346900"/>
+          <a:ext cx="2619048" cy="1400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2619048</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1352381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="图片 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17754600" y="32346900"/>
+          <a:ext cx="2619048" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2590476</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1371429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="图片 76"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="34356675"/>
+          <a:ext cx="2590476" cy="1371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2590476</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1466667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="图片 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="34356675"/>
+          <a:ext cx="2590476" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2609524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1485714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="图片 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="34356675"/>
+          <a:ext cx="2609524" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2600000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1333333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="图片 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="34356675"/>
+          <a:ext cx="2600000" cy="1333333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2619048</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1352381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954250" y="34356675"/>
+          <a:ext cx="2619048" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2628571</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1380952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="图片 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17754600" y="34356675"/>
+          <a:ext cx="2628571" cy="1380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619048</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1428571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="图片 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="36261675"/>
+          <a:ext cx="2619048" cy="1428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2628571</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1390476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="图片 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="36261675"/>
+          <a:ext cx="2628571" cy="1390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2600000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1380952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="图片 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="36261675"/>
+          <a:ext cx="2600000" cy="1380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638095</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1342857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="图片 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="36261675"/>
+          <a:ext cx="2638095" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2561905</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1504762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="图片 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="38995350"/>
+          <a:ext cx="2561905" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2647619</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1542857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="图片 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="38995350"/>
+          <a:ext cx="2647619" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2609524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1590476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="图片 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9382125" y="38995350"/>
+          <a:ext cx="2609524" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2590476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1561905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="图片 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="38995350"/>
+          <a:ext cx="2590476" cy="1561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2685715</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1590476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="图片 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14963775" y="38995350"/>
+          <a:ext cx="2676190" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2619048</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1533333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="图片 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17754600" y="38995350"/>
+          <a:ext cx="2619048" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2638095</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1695262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="图片 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="40643175"/>
+          <a:ext cx="2638095" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2609524</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1742886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="图片 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="40681275"/>
+          <a:ext cx="2609524" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2619049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1761926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="图片 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="40938450"/>
+          <a:ext cx="2609524" cy="1590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638098</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1695264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="图片 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12249150" y="40976550"/>
+          <a:ext cx="2619048" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2638095</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1695263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="图片 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954250" y="40967025"/>
+          <a:ext cx="2638095" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2628574</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1695262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="图片 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17773650" y="40957500"/>
+          <a:ext cx="2609524" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2590476</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1685739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="图片 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2695575" y="42805350"/>
+          <a:ext cx="2590476" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2685720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1704789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="图片 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="42824400"/>
+          <a:ext cx="2638095" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2685720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1761932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="图片 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="42824400"/>
+          <a:ext cx="2638095" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2647619</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1733357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="图片 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="42795825"/>
+          <a:ext cx="2647619" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2800020</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1666682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="图片 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="45700950"/>
+          <a:ext cx="2638095" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2704773</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1609537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="图片 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="45681900"/>
+          <a:ext cx="2619048" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2704771</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1609537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="图片 104"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="45681900"/>
+          <a:ext cx="2628571" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2676196</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1628583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="图片 105"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12277725" y="45672375"/>
+          <a:ext cx="2628571" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2647621</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1628581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="图片 106"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14973300" y="45653325"/>
+          <a:ext cx="2628571" cy="1552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2638098</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1609537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="图片 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17773650" y="45681900"/>
+          <a:ext cx="2619048" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2733346</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1723836</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图片 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2800350" y="47672625"/>
+          <a:ext cx="2628571" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2704774</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1790507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="图片 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="47710725"/>
+          <a:ext cx="2609524" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2714299</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1742882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="图片 110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="47663100"/>
+          <a:ext cx="2609524" cy="1542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2695246</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1752408</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="112" name="图片 111"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12296775" y="47682150"/>
+          <a:ext cx="2628571" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2685719</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1800033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="图片 112"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14992350" y="47729775"/>
+          <a:ext cx="2647619" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2657148</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1742892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="图片 113"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17792700" y="47739300"/>
+          <a:ext cx="2619048" cy="1466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2714294</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1580964</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="图片 114"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="49720500"/>
+          <a:ext cx="2647619" cy="1485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2723823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1600010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="图片 115"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="49701450"/>
+          <a:ext cx="2619048" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2685720</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1600011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="图片 116"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9429750" y="49710975"/>
+          <a:ext cx="2638095" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2704773</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="图片 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12315825" y="49710975"/>
+          <a:ext cx="2619048" cy="1580952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3049,8 +4914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3185,41 +5050,65 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
+    <row r="18" spans="1:1" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="158.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="150" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="122.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="144.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="170.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="128.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>

--- a/art/美术制作规范/场景内怪物缩放截图.xlsx
+++ b/art/美术制作规范/场景内怪物缩放截图.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>大街站位4</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   <si>
     <t>battlePosition2</t>
   </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battlePosition0(备注所以Y轴为0.02)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1798,44 +1806,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>485775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9196</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1828632</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="图片 44"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17878425" y="16878300"/>
-          <a:ext cx="2628571" cy="1342857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -1855,7 +1825,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1893,7 +1863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1931,7 +1901,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1969,7 +1939,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2007,7 +1977,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2045,7 +2015,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2083,7 +2053,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2121,7 +2091,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2159,7 +2129,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2197,7 +2167,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2235,7 +2205,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2273,7 +2243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2311,7 +2281,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2349,7 +2319,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2387,7 +2357,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2425,7 +2395,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2463,7 +2433,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2501,7 +2471,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2539,7 +2509,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2577,7 +2547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2615,7 +2585,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2653,7 +2623,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2691,7 +2661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2729,7 +2699,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2767,7 +2737,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2805,7 +2775,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2843,7 +2813,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2881,7 +2851,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2919,7 +2889,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2957,7 +2927,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2995,7 +2965,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3033,7 +3003,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3071,7 +3041,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3109,7 +3079,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3147,7 +3117,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3185,7 +3155,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3223,7 +3193,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3261,7 +3231,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3299,7 +3269,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3337,7 +3307,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3375,7 +3345,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3413,7 +3383,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3451,7 +3421,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3489,7 +3459,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId86"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3527,7 +3497,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3565,7 +3535,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId88"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3603,7 +3573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3641,7 +3611,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId90"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3679,7 +3649,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3717,7 +3687,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3755,7 +3725,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3793,7 +3763,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId94"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3831,7 +3801,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3869,7 +3839,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId96"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3907,7 +3877,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3945,7 +3915,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId98"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3983,7 +3953,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4021,7 +3991,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId100"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4059,7 +4029,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4097,7 +4067,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId102"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4135,7 +4105,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4173,7 +4143,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId104"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4211,7 +4181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4249,7 +4219,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId106"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4287,7 +4257,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4325,7 +4295,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId108"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4363,7 +4333,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4401,7 +4371,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId110"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4439,7 +4409,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4477,7 +4447,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId112"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4515,7 +4485,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4553,7 +4523,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId114"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4591,7 +4561,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4629,7 +4599,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId116"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4638,6 +4608,386 @@
         <a:xfrm>
           <a:off x="12315825" y="49710975"/>
           <a:ext cx="2619048" cy="1580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2809550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1695260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6410325" y="51882675"/>
+          <a:ext cx="2600000" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2780973</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1638111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="图片 118"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId118"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9544050" y="51835050"/>
+          <a:ext cx="2619048" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3285799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1676211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="图片 119"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId119"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3371850" y="51873150"/>
+          <a:ext cx="2609524" cy="1514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2638100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1638110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="图片 120"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12268200" y="51825525"/>
+          <a:ext cx="2600000" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2685720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1628587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="图片 121"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId121"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15001875" y="51835050"/>
+          <a:ext cx="2638095" cy="1504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2676200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1590483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="123" name="图片 122"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17830800" y="51768375"/>
+          <a:ext cx="2600000" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2695246</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1590483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="124" name="图片 123"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId123"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20564475" y="51768375"/>
+          <a:ext cx="2628571" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2685724</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1571433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="125" name="图片 124"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23736300" y="51749325"/>
+          <a:ext cx="2609524" cy="1533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2638099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1542860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="126" name="图片 125"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId125"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25965150" y="51730275"/>
+          <a:ext cx="2609524" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>2666675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1533338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="127" name="图片 126"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28746450" y="51749325"/>
+          <a:ext cx="2600000" cy="1495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4914,8 +5264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4927,6 +5277,10 @@
     <col min="5" max="5" width="35.75" customWidth="1"/>
     <col min="6" max="6" width="36.75" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="35.75" customWidth="1"/>
+    <col min="9" max="9" width="35.625" customWidth="1"/>
+    <col min="10" max="10" width="35.25" customWidth="1"/>
+    <col min="11" max="11" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="156" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,11 +5464,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
+    <row r="30" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
